--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N2">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O2">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P2">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q2">
-        <v>1284.7789401777</v>
+        <v>21.964092652533</v>
       </c>
       <c r="R2">
-        <v>11563.0104615993</v>
+        <v>197.676833872797</v>
       </c>
       <c r="S2">
-        <v>0.02435171927480829</v>
+        <v>0.001171325021626535</v>
       </c>
       <c r="T2">
-        <v>0.02435171927480829</v>
+        <v>0.001171325021626535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N3">
         <v>15.529133</v>
       </c>
       <c r="O3">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P3">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q3">
-        <v>632.827776528665</v>
+        <v>117.507194618971</v>
       </c>
       <c r="R3">
-        <v>5695.449988757985</v>
+        <v>1057.564751570739</v>
       </c>
       <c r="S3">
-        <v>0.01199462715445485</v>
+        <v>0.006266551478167549</v>
       </c>
       <c r="T3">
-        <v>0.01199462715445485</v>
+        <v>0.006266551478167549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N4">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O4">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P4">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q4">
-        <v>497.89471956387</v>
+        <v>106.015560071133</v>
       </c>
       <c r="R4">
-        <v>4481.05247607483</v>
+        <v>954.1400406401968</v>
       </c>
       <c r="S4">
-        <v>0.009437103971794392</v>
+        <v>0.005653713092434448</v>
       </c>
       <c r="T4">
-        <v>0.009437103971794392</v>
+        <v>0.005653713092434448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N5">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O5">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P5">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q5">
-        <v>8076.414744535696</v>
+        <v>1370.004671192618</v>
       </c>
       <c r="R5">
-        <v>72687.73270082126</v>
+        <v>12330.04204073356</v>
       </c>
       <c r="S5">
-        <v>0.1530804860318253</v>
+        <v>0.07306109915394496</v>
       </c>
       <c r="T5">
-        <v>0.1530804860318253</v>
+        <v>0.07306109915394496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N6">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O6">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P6">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q6">
-        <v>1392.9367584121</v>
+        <v>128.2440817848683</v>
       </c>
       <c r="R6">
-        <v>12536.4308257089</v>
+        <v>1154.196736063815</v>
       </c>
       <c r="S6">
-        <v>0.02640174418154871</v>
+        <v>0.006839139874635909</v>
       </c>
       <c r="T6">
-        <v>0.02640174418154871</v>
+        <v>0.006839139874635911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N7">
         <v>15.529133</v>
       </c>
       <c r="O7">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P7">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q7">
-        <v>686.1017441249894</v>
+        <v>686.1017441249895</v>
       </c>
       <c r="R7">
         <v>6174.915697124905</v>
       </c>
       <c r="S7">
-        <v>0.01300438273418243</v>
+        <v>0.03658918003073195</v>
       </c>
       <c r="T7">
-        <v>0.01300438273418244</v>
+        <v>0.03658918003073196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N8">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O8">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P8">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q8">
-        <v>539.8094839598433</v>
+        <v>619.0043163318683</v>
       </c>
       <c r="R8">
-        <v>4858.28535563859</v>
+        <v>5571.038846986814</v>
       </c>
       <c r="S8">
-        <v>0.01023155704393091</v>
+        <v>0.03301093542467494</v>
       </c>
       <c r="T8">
-        <v>0.01023155704393091</v>
+        <v>0.03301093542467495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N9">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O9">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P9">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q9">
-        <v>8756.319567543069</v>
+        <v>7999.191857252333</v>
       </c>
       <c r="R9">
-        <v>78806.87610788761</v>
+        <v>71992.72671527098</v>
       </c>
       <c r="S9">
-        <v>0.1659674122303305</v>
+        <v>0.4265896034685658</v>
       </c>
       <c r="T9">
-        <v>0.1659674122303306</v>
+        <v>0.4265896034685658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N10">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O10">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P10">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q10">
-        <v>418.9998856208</v>
+        <v>40.58434374574966</v>
       </c>
       <c r="R10">
-        <v>3770.9989705872</v>
+        <v>365.259093711747</v>
       </c>
       <c r="S10">
-        <v>0.007941730107595987</v>
+        <v>0.002164326023738874</v>
       </c>
       <c r="T10">
-        <v>0.007941730107595989</v>
+        <v>0.002164326023738874</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N11">
         <v>15.529133</v>
       </c>
       <c r="O11">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P11">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q11">
-        <v>206.3816254230489</v>
+        <v>217.1249436277099</v>
       </c>
       <c r="R11">
-        <v>1857.43462880744</v>
+        <v>1954.124492649389</v>
       </c>
       <c r="S11">
-        <v>0.003911760419333775</v>
+        <v>0.01157907514386021</v>
       </c>
       <c r="T11">
-        <v>0.003911760419333776</v>
+        <v>0.01157907514386021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N12">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O12">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P12">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q12">
-        <v>162.3764400431466</v>
+        <v>195.8911756743497</v>
       </c>
       <c r="R12">
-        <v>1461.38796038832</v>
+        <v>1763.020581069147</v>
       </c>
       <c r="S12">
-        <v>0.003077685476558747</v>
+        <v>0.0104466976721091</v>
       </c>
       <c r="T12">
-        <v>0.003077685476558747</v>
+        <v>0.0104466976721091</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N13">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O13">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P13">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q13">
-        <v>2633.929268577946</v>
+        <v>2531.438078893363</v>
       </c>
       <c r="R13">
-        <v>23705.36341720152</v>
+        <v>22782.94271004026</v>
       </c>
       <c r="S13">
-        <v>0.04992353480610436</v>
+        <v>0.1349992831214928</v>
       </c>
       <c r="T13">
-        <v>0.04992353480610437</v>
+        <v>0.1349992831214928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.50918</v>
+        <v>0.967553</v>
       </c>
       <c r="N14">
-        <v>31.52754</v>
+        <v>2.902659</v>
       </c>
       <c r="O14">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="P14">
-        <v>0.1224541750083835</v>
+        <v>0.01359591950841534</v>
       </c>
       <c r="Q14">
-        <v>3363.87733788172</v>
+        <v>64.151267927164</v>
       </c>
       <c r="R14">
-        <v>30274.89604093548</v>
+        <v>577.361411344476</v>
       </c>
       <c r="S14">
-        <v>0.06375898144443051</v>
+        <v>0.003421128588414023</v>
       </c>
       <c r="T14">
-        <v>0.06375898144443053</v>
+        <v>0.003421128588414023</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.176377666666666</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N15">
         <v>15.529133</v>
       </c>
       <c r="O15">
-        <v>0.06031574839364134</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="P15">
-        <v>0.06031574839364136</v>
+        <v>0.07273773540173906</v>
       </c>
       <c r="Q15">
-        <v>1656.903728475205</v>
+        <v>343.2072357654014</v>
       </c>
       <c r="R15">
-        <v>14912.13355627685</v>
+        <v>3088.865121888612</v>
       </c>
       <c r="S15">
-        <v>0.03140497808567029</v>
+        <v>0.01830292874897934</v>
       </c>
       <c r="T15">
-        <v>0.0314049780856703</v>
+        <v>0.01830292874897934</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.072658</v>
+        <v>4.670153</v>
       </c>
       <c r="N16">
-        <v>12.217974</v>
+        <v>14.010459</v>
       </c>
       <c r="O16">
-        <v>0.04745507979512132</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="P16">
-        <v>0.04745507979512133</v>
+        <v>0.06562433714740633</v>
       </c>
       <c r="Q16">
-        <v>1303.614739793465</v>
+        <v>309.643230255964</v>
       </c>
       <c r="R16">
-        <v>11732.53265814119</v>
+        <v>2786.789072303676</v>
       </c>
       <c r="S16">
-        <v>0.02470873330283728</v>
+        <v>0.01651299095818784</v>
       </c>
       <c r="T16">
-        <v>0.02470873330283728</v>
+        <v>0.01651299095818784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>66.063113</v>
+        <v>60.35087133333334</v>
       </c>
       <c r="N17">
-        <v>198.189339</v>
+        <v>181.052614</v>
       </c>
       <c r="O17">
-        <v>0.7697749968028538</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="P17">
-        <v>0.7697749968028539</v>
+        <v>0.8480420079424392</v>
       </c>
       <c r="Q17">
-        <v>21146.10356760653</v>
+        <v>4001.418957455011</v>
       </c>
       <c r="R17">
-        <v>190314.9321084588</v>
+        <v>36012.77061709509</v>
       </c>
       <c r="S17">
-        <v>0.4008035637345936</v>
+        <v>0.2133920221984356</v>
       </c>
       <c r="T17">
-        <v>0.4008035637345936</v>
+        <v>0.2133920221984356</v>
       </c>
     </row>
   </sheetData>
